--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -70,79 +70,76 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>relief</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
@@ -151,15 +148,12 @@
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
@@ -172,7 +166,13 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -544,7 +544,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +626,13 @@
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.708904109589041</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C5">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D5">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3733333333333334</v>
+        <v>0.36</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3546511627906977</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C8">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D8">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +926,13 @@
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1746031746031746</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8083333333333333</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L10">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M10">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,37 +1002,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09946236559139784</v>
+        <v>0.09651474530831099</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1052,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1078,13 +1078,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7647058823529411</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1104,13 +1104,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7413793103448276</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1130,13 +1130,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.73125</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L15">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1156,13 +1156,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7264150943396226</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1182,13 +1182,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7021276595744681</v>
+        <v>0.73125</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1208,13 +1208,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6984126984126984</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1234,13 +1234,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6944444444444444</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1260,13 +1260,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6808510638297872</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L20">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1286,13 +1286,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.62</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1312,13 +1312,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6449086161879896</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L22">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="M22">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1338,13 +1338,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5882352941176471</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L23">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="M23">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1364,7 +1364,7 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5813953488372093</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L24">
         <v>25</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1390,13 +1390,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1416,13 +1416,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5322033898305085</v>
+        <v>0.46875</v>
       </c>
       <c r="L26">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1442,13 +1442,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5280898876404494</v>
+        <v>0.4686192468619247</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1468,13 +1468,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4644351464435146</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L28">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1494,13 +1494,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4615384615384616</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1520,13 +1520,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.453125</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1546,13 +1546,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4358974358974359</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1572,13 +1572,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.410958904109589</v>
+        <v>0.09375</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1598,7 +1598,7 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.1244019138755981</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L33">
         <v>52</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>366</v>
+        <v>842</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1624,13 +1624,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.08413461538461539</v>
+        <v>0.04328523862375139</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>381</v>
+        <v>862</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1650,25 +1650,25 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.06040268456375839</v>
+        <v>0.04006163328197226</v>
       </c>
       <c r="L35">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>840</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1676,25 +1676,25 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.03551609322974473</v>
+        <v>0.03414405986903649</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>869</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1702,25 +1702,25 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.02382064455861747</v>
+        <v>0.03114186851211072</v>
       </c>
       <c r="L37">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>2090</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1728,25 +1728,25 @@
         <v>53</v>
       </c>
       <c r="K38">
-        <v>0.01353965183752418</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="L38">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M38">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N38">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="O38">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>3060</v>
+        <v>3055</v>
       </c>
     </row>
   </sheetData>
